--- a/assets/files/excel/2415.xlsx
+++ b/assets/files/excel/2415.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="icax7Snaf/wziAp/ruBk4Pb5fSo8it+fCybek0XnzXFaU4/j2IzS3+BUtlko+qg147nULq1edrnrDppA93U1xw==" workbookSaltValue="r/rXv0RN1izQSkD/MCJcew==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,9 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1054,7 +1052,7 @@
         <v>65000</v>
       </c>
       <c r="F11" t="str">
-        <f>IFERROR(IF('Доставка песка'!E11='Доставка песка (решение)'!E11,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Доставка песка'!E11-'Доставка песка (решение)'!E11)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1079,7 +1077,7 @@
         <v>132500</v>
       </c>
       <c r="F12" t="str">
-        <f>IFERROR(IF('Доставка песка'!E12='Доставка песка (решение)'!E12,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Доставка песка'!E12-'Доставка песка (решение)'!E12)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
